--- a/SQLServer資料/SQLServerマニュアル.xlsx
+++ b/SQLServer資料/SQLServerマニュアル.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>参考サイト</t>
     <rPh sb="0" eb="2">
@@ -113,50 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認設定方法についての説明</t>
-    <rPh sb="0" eb="4">
-      <t>ショウニンセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース作成方法についての説明</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインユーザー作成方法についての説明</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルのインポート／エクスポートの方法についての説明</t>
-    <rPh sb="18" eb="20">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルの権限設定方法についての説明</t>
-    <rPh sb="5" eb="9">
-      <t>ケンゲンセッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>構成マネージャ―での設定についての説明</t>
     <rPh sb="0" eb="2">
       <t>コウセイ</t>
@@ -223,6 +179,180 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioを使用した認証設定を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>②サーバーを右クリック→プロパティ→セキリュティ→SQLServer認証モードとWindows認証モードにチェック→OK押下。</t>
+  </si>
+  <si>
+    <t>SQL Server Management Studioを使用したデータベース作成を行う。</t>
+  </si>
+  <si>
+    <t>②オブジェクトエクスプローラーの「セキュリティ」を右クリックして表示されるメニューの「新しいログイン」を実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ログイン新規作成画面が表示されるので各ページで設定を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②データべースフォルダを右クリック→新しいデータベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ダイアログが表示されるのでデータベース名を入力してOKを押下</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioでの承認設定方法についての説明</t>
+    <rPh sb="30" eb="34">
+      <t>ショウニンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioでのデータベース作成方法についての説明</t>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioでのログインユーザー作成方法についての説明</t>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioでのテーブルのインポート／エクスポートの方法についての説明</t>
+    <rPh sb="48" eb="50">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioでのテーブルの権限設定方法についての説明</t>
+    <rPh sb="35" eb="39">
+      <t>ケンゲンセッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioとインポート用SQLファイルを使用したテーブル構成のインポートを行う</t>
+    <rPh sb="43" eb="45">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioを使用したテーブル構成のエクスポートを行う</t>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②オブジェクトエクスプローラーでテーブルを追加するデータベースを選択する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③メニューの「ファイル」-「開く」-「ファイル」で表示されるファイル選択画面でインポートファイル（.sql）を選択して開く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④テーブルを追加するデータベースが選択されている状態で実行をクリックする。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studioを使用したテーブルへの権限の設定を行う</t>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②テーブル名を右クリックして表示されるメニューの「プロパティ」を押下。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③表示された画面の「権限」ページで権限を設定するユーザー名を選択する。</t>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④「更新」、「選択」、「挿入」等の許可にチェックを入れる。</t>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -231,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +396,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -319,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +487,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,12 +778,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.4">
@@ -661,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -669,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -677,15 +830,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -693,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -701,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -710,7 +863,7 @@
         <v>Windowsファイアウォール</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +914,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -777,17 +930,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -801,23 +974,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A10" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="A11" location="目次!A1" display="目次へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,23 +1018,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A10" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="A9" location="目次!A1" display="目次へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -849,57 +1063,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A18" location="目次!A1" display="目次へ"/>
-    <hyperlink ref="A122" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="A31" location="目次!A1" display="目次へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -907,23 +1151,48 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A10" location="目次!A1" display="目次へ"/>
+    <hyperlink ref="A12" location="目次!A1" display="目次へ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,7 +1210,7 @@
   <sheetData>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -958,14 +1227,14 @@
   <dimension ref="A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SQLServer資料/SQLServerマニュアル.xlsx
+++ b/SQLServer資料/SQLServerマニュアル.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\その他\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\SQLServer資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="テーブルの権限設定（メンテナンス中）" sheetId="7" r:id="rId7"/>
     <sheet name="構成マネージャ（メンテナンス中）" sheetId="8" r:id="rId8"/>
     <sheet name="Windowsファイアウォール（メンテナンス中）" sheetId="9" r:id="rId9"/>
+    <sheet name="バックアップと復元(メンテナンス中）" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>参考サイト</t>
     <rPh sb="0" eb="2">
@@ -353,6 +354,84 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜バックアップ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜復元＞</t>
+    <rPh sb="1" eb="3">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.3s-sys.co.jp/blog/2017/01/25/1071/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/naaaoooo/items/30c4824dcb5e97df85a8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kajiblo.com/user-mapping/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復元時にDBとログインユーザのマッピングが外れる場合がある。</t>
+    <rPh sb="0" eb="3">
+      <t>フクゲンジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のマッピング設定方法だと、エラー「ユーザー、グループ、またはロールは現在のデータベースに既に存在します。」が発生するので、</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>セッテイホウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLコマンドを使用して再マッピングを行う。</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※SQL2017より前か後かでコマンドが異なるので要注意</t>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヨウチュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -882,11 +961,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/SQLServer資料/SQLServerマニュアル.xlsx
+++ b/SQLServer資料/SQLServerマニュアル.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\SQLServer資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\SQLServer資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8970" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="構成マネージャ（メンテナンス中）" sheetId="8" r:id="rId8"/>
     <sheet name="Windowsファイアウォール（メンテナンス中）" sheetId="9" r:id="rId9"/>
     <sheet name="バックアップと復元(メンテナンス中）" sheetId="10" r:id="rId10"/>
+    <sheet name="クエリー" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>参考サイト</t>
     <rPh sb="0" eb="2">
@@ -432,6 +433,85 @@
     </rPh>
     <rPh sb="25" eb="28">
       <t>ヨウチュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① 登録日でレコードを検索する。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bz_kanri1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= '2022-09-09'</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  例.  「bz_kanri1 」テーブルで「2022/09/09」以降登録のレコードを検索する。</t>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +571,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -965,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1024,6 +1112,41 @@
     <hyperlink ref="A19" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
